--- a/数据结构.xlsx
+++ b/数据结构.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>项目信息
 （Project）</t>
@@ -100,31 +100,46 @@
     <t>资金拨付（fundAppropriation）</t>
   </si>
   <si>
+    <t>县财政局（bureauOfFinance）</t>
+  </si>
+  <si>
+    <t>银行账户（account）</t>
+  </si>
+  <si>
+    <t>金额（amount）</t>
+  </si>
+  <si>
+    <t>实际拨款金额（actualAmount）</t>
+  </si>
+  <si>
+    <t>拨款截止时间（deadline）</t>
+  </si>
+  <si>
+    <t>实际拨款时间（actualTimeOfRemit）</t>
+  </si>
+  <si>
+    <t>流水号（serialNumber）</t>
+  </si>
+  <si>
+    <t>顺序编号（sequenceNumber）</t>
+  </si>
+  <si>
     <t>省财政厅（departmentOfFinance）</t>
   </si>
   <si>
-    <t>银行账户（account）</t>
-  </si>
-  <si>
-    <t>金额（amount）</t>
-  </si>
-  <si>
-    <t>拨款截止时间（deadline）</t>
-  </si>
-  <si>
-    <t>实际拨款时间（actualTimeOfRemit）</t>
-  </si>
-  <si>
     <t>商业银行（commercialBank）</t>
   </si>
   <si>
     <t>有限合伙公司（spv）</t>
   </si>
   <si>
-    <t>县财政局（bureauOfFinance）</t>
-  </si>
-  <si>
     <t>县脱贫基金公司（fundCompany）</t>
+  </si>
+  <si>
+    <t>当前机构编号（currentSequenceNumber）</t>
+  </si>
+  <si>
+    <t>该拨付而未拨付</t>
   </si>
 </sst>
 </file>
@@ -132,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +158,57 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,10 +221,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,61 +266,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,25 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,20 +304,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,19 +314,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +422,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,31 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,126 +498,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -508,17 +536,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,11 +608,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +630,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,15 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,157 +677,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1125,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C6:H40"/>
+  <dimension ref="C6:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1152,99 +1222,99 @@
         <v>2</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="1"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="1"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="1"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="1"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="1"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="1"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="1"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="1"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="1"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="s">
         <v>15</v>
@@ -1254,7 +1324,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="1"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -1264,280 +1334,621 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="1"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:8">
-      <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="3" t="s">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="3" t="s">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3" t="s">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3" t="s">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5" t="s">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="3:8">
-      <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="3" t="s">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="3" t="s">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5" t="s">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="1"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="3" t="s">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="3:8">
-      <c r="C39" s="1"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="3" t="s">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="3:8">
-      <c r="C40" s="1"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5" t="s">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="5"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" s="8"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" s="8"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="8"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="8"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" s="8"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" s="8"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" s="8"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="F71" s="8"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="F74" s="8"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" s="8"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="F76" s="8"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="6:8">
+      <c r="F77" s="8"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="6:8">
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="6:7">
+      <c r="F81" s="2"/>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="6:7">
+      <c r="F82" s="2"/>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="6:7">
+      <c r="F83" s="2"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="6:7">
+      <c r="F84" s="2"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="6:7">
+      <c r="F85" s="2"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="6:7">
+      <c r="F86" s="2"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="6:7">
+      <c r="F87" s="2"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="6:7">
+      <c r="F88" s="2"/>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="6:7">
+      <c r="F89" s="2"/>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="6:7">
+      <c r="F90" s="2"/>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="6:7">
+      <c r="F91" s="2"/>
+      <c r="G91" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C6:C40"/>
+  <mergeCells count="16">
+    <mergeCell ref="C6:C56"/>
     <mergeCell ref="D6:D16"/>
-    <mergeCell ref="D17:D40"/>
+    <mergeCell ref="D17:D56"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E40"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="E21:E56"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="F68:F73"/>
+    <mergeCell ref="F74:F79"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="F88:F91"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
